--- a/src/main/resources/cases/cases_v5.xlsx
+++ b/src/main/resources/cases/cases_v5.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/mooc/14.柠檬班 - Java自动化测试工程师/autoapi/src/main/resources/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE86D96-140C-174E-8138-ECCE9D591713}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C8695A94-966D-E841-97D1-A4EBC6C9C915}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="-19220" windowWidth="26560" windowHeight="12620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="12620" windowWidth="26560" xWindow="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-19220"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
-    <sheet name="用例" sheetId="2" r:id="rId2"/>
+    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
+    <sheet name="用例" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!#REF!</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -97,31 +97,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://127.0.0.1:8888/api/member/register</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/recharge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/withdraw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/bidLoan</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -147,34 +123,6 @@
     </r>
   </si>
   <si>
-    <t>http://127.0.0.1:8888/api/loan/add</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/loan/audit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/loan/getLoanList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/loan/generateRepayments</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/invest/getInvestsByMemberId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/invest/getInvestsByLoanId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/financelog/getFinanceLogList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>{"phone":"18268046852","password":"123456"}</t>
   </si>
   <si>
@@ -230,6 +178,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>http://127.0.0.1:8848/api/member/register</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/login</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/recharge</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/list</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/add</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/audit</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码格式不正确"}</t>
   </si>
   <si>
@@ -240,12 +230,19 @@
   </si>
   <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"该手机号已被注册"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"10001","data":null,"msg":"登陆成功"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -325,45 +322,48 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,10 +380,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -418,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,7 +575,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -584,13 +584,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -600,7 +600,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -609,7 +609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -618,7 +618,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -628,12 +628,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -664,7 +664,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -683,7 +683,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -695,19 +695,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="77.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -734,8 +734,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -763,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -777,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -785,13 +785,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -805,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -813,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -833,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -875,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -889,7 +889,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -903,51 +903,51 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{ED367E2A-FD9A-F44B-AE3B-ACC56D7CFD3D}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{C89ED151-C8AA-E34D-8495-40BB749E7B7B}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{55C77728-9B4F-5D4C-BDFD-B50AD4F759F7}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{13570E2D-9A26-E54C-8D2E-C74C37A152E1}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{2874E8E5-8222-654C-B1FE-3B2CD19B5548}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{8992E4D3-2500-B84D-9C87-4BD8F424A8F6}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{D0C524B6-FDE7-E044-BB86-00352B25218C}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{665ADF77-2CA3-3D45-AE5E-B91AF4F701F3}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/login" r:id="rId1" ref="D3" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/register" r:id="rId2" ref="D2" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/recharge" r:id="rId3" ref="D4" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/withdraw" r:id="rId4" ref="D5" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId5" ref="D6" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/bidLoan" r:id="rId6" ref="D7" xr:uid="{ED367E2A-FD9A-F44B-AE3B-ACC56D7CFD3D}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/loan/add" r:id="rId7" ref="D8" xr:uid="{C89ED151-C8AA-E34D-8495-40BB749E7B7B}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/loan/audit" r:id="rId8" ref="D9" xr:uid="{55C77728-9B4F-5D4C-BDFD-B50AD4F759F7}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/loan/getLoanList" r:id="rId9" ref="D10" xr:uid="{13570E2D-9A26-E54C-8D2E-C74C37A152E1}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/loan/generateRepayments" r:id="rId10" ref="D11" xr:uid="{2874E8E5-8222-654C-B1FE-3B2CD19B5548}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/invest/getInvestsByMemberId" r:id="rId11" ref="D12" xr:uid="{8992E4D3-2500-B84D-9C87-4BD8F424A8F6}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/invest/getInvestsByLoanId" r:id="rId12" ref="D13" xr:uid="{D0C524B6-FDE7-E044-BB86-00352B25218C}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/financelog/getFinanceLogList" r:id="rId13" ref="D14" xr:uid="{665ADF77-2CA3-3D45-AE5E-B91AF4F701F3}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="69.1640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="77.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="69.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
@@ -959,10 +959,10 @@
         <v>15</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -976,13 +976,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -996,16 +996,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1016,13 +1016,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1036,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1050,16 +1050,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1067,21 +1070,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/src/main/resources/cases/cases_v5.xlsx
+++ b/src/main/resources/cases/cases_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C8695A94-966D-E841-97D1-A4EBC6C9C915}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2008508C-8165-134B-8D40-33C8217C2C8E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12620" windowWidth="26560" xWindow="6300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-19220"/>
+    <workbookView activeTab="1" windowHeight="16300" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" r:id="rId1" sheetId="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -932,7 +932,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/src/main/resources/cases/cases_v5.xlsx
+++ b/src/main/resources/cases/cases_v5.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2008508C-8165-134B-8D40-33C8217C2C8E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33069861-0611-1349-A372-DA659D9DC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="16300" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
-    <sheet name="用例" r:id="rId2" sheetId="2"/>
+    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
+    <sheet name="用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -48,27 +48,6 @@
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>bidLoan</t>
-  </si>
-  <si>
-    <t>audit</t>
-  </si>
-  <si>
-    <t>getLoanList</t>
-  </si>
-  <si>
-    <t>generateRepayments</t>
-  </si>
-  <si>
-    <t>getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>getFinanceLogList</t>
   </si>
   <si>
     <t>Params(参数)</t>
@@ -101,28 +80,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>add</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>{"phone":"18268046852","password":"123456"}</t>
   </si>
   <si>
@@ -151,19 +108,19 @@
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"不合格的手机号"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"status":0,"code":"20103","data":null,"msg":"密码长度必须为6-18"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"status":0,"code":"20109","data":null,"msg":"注册成功"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"status":0,"code":"20108","data":null,"msg":"该手机号已被注册"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或者密码错误"}</t>
@@ -193,33 +150,6 @@
     <t>http://127.0.0.1:8848/api/member/list</t>
   </si>
   <si>
-    <t>http://127.0.0.1:8848/api/member/bidLoan</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/loan/add</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/loan/audit</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/loan/getLoanList</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/loan/generateRepayments</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/invest/getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/invest/getInvestsByLoanId</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8848/api/financelog/getFinanceLogList</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码格式不正确"}</t>
   </si>
   <si>
@@ -236,14 +166,25 @@
   </si>
   <si>
     <t>{"status":0,"code":"10001","data":null,"msg":"登陆成功"}</t>
+  </si>
+  <si>
+    <t>list/id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,13 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -322,48 +256,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,10 +317,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -418,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -470,7 +407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,7 +512,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -584,13 +521,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -600,7 +537,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -609,7 +546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -618,7 +555,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -628,12 +565,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -664,7 +601,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -683,7 +620,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -695,19 +632,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.1640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="77.1640625" collapsed="true"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -715,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -729,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -749,7 +686,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -763,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -777,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -785,184 +722,78 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>53</v>
+      <c r="D7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="http://127.0.0.1:8888/api/member/login" r:id="rId1" ref="D3" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/register" r:id="rId2" ref="D2" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/recharge" r:id="rId3" ref="D4" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/withdraw" r:id="rId4" ref="D5" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/list" r:id="rId5" ref="D6" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/member/bidLoan" r:id="rId6" ref="D7" xr:uid="{ED367E2A-FD9A-F44B-AE3B-ACC56D7CFD3D}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/loan/add" r:id="rId7" ref="D8" xr:uid="{C89ED151-C8AA-E34D-8495-40BB749E7B7B}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/loan/audit" r:id="rId8" ref="D9" xr:uid="{55C77728-9B4F-5D4C-BDFD-B50AD4F759F7}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/loan/getLoanList" r:id="rId9" ref="D10" xr:uid="{13570E2D-9A26-E54C-8D2E-C74C37A152E1}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/loan/generateRepayments" r:id="rId10" ref="D11" xr:uid="{2874E8E5-8222-654C-B1FE-3B2CD19B5548}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/invest/getInvestsByMemberId" r:id="rId11" ref="D12" xr:uid="{8992E4D3-2500-B84D-9C87-4BD8F424A8F6}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/invest/getInvestsByLoanId" r:id="rId12" ref="D13" xr:uid="{D0C524B6-FDE7-E044-BB86-00352B25218C}"/>
-    <hyperlink display="http://127.0.0.1:8888/api/financelog/getFinanceLogList" r:id="rId13" ref="D14" xr:uid="{665ADF77-2CA3-3D45-AE5E-B91AF4F701F3}"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1:8888/api/member/login" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://127.0.0.1:8888/api/member/register" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
+    <hyperlink ref="D4" r:id="rId3" display="http://127.0.0.1:8888/api/member/recharge" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
+    <hyperlink ref="D5" r:id="rId4" display="http://127.0.0.1:8888/api/member/withdraw" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="47.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="77.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="7" width="69.1640625" collapsed="true"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.6640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="69.1640625" style="7" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -970,19 +801,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -990,39 +821,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="4" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1030,19 +861,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1050,19 +881,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1070,24 +901,24 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/main/resources/cases/cases_v5.xlsx
+++ b/src/main/resources/cases/cases_v5.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33069861-0611-1349-A372-DA659D9DC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CDAAD0E0-731E-EC4F-984B-0A654A0C3588}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="16300" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="500"/>
   </bookViews>
   <sheets>
-    <sheet name="接口信息" sheetId="1" r:id="rId1"/>
-    <sheet name="用例" sheetId="2" r:id="rId2"/>
+    <sheet name="接口信息" r:id="rId1" sheetId="1"/>
+    <sheet name="用例" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">用例!#REF!</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">用例!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -98,9 +98,6 @@
     <t>登陆失败</t>
   </si>
   <si>
-    <t>{"phone":"18268046854","password":"123456"}</t>
-  </si>
-  <si>
     <t>登陆成功</t>
   </si>
   <si>
@@ -162,12 +159,6 @@
     <t>{"status":0,"code":"20110","data":null,"msg":"该手机号已被注册"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20110","data":null,"msg":"用户名或密码错误"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"10001","data":null,"msg":"登陆成功"}</t>
-  </si>
-  <si>
     <t>list/id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -178,12 +169,26 @@
   <si>
     <t>http://127.0.0.1:8848/api/member/list</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"phone":"18268046854","password":"123456"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20110","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"10001","data":null,"msg":"登陆成功"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -256,51 +261,51 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -317,10 +322,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -355,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +517,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -521,13 +526,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -537,7 +542,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -546,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -555,7 +560,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -565,12 +570,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -601,7 +606,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -620,7 +625,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -632,19 +637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="77.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -672,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -686,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -700,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -714,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -728,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -736,47 +741,47 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1:8888/api/member/login" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
-    <hyperlink ref="D2" r:id="rId2" display="http://127.0.0.1:8888/api/member/register" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://127.0.0.1:8888/api/member/recharge" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
-    <hyperlink ref="D5" r:id="rId4" display="http://127.0.0.1:8888/api/member/withdraw" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/login" r:id="rId1" ref="D3" xr:uid="{6A561754-01CA-5E44-BD1F-14DE74691068}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/register" r:id="rId2" ref="D2" xr:uid="{D9EC6166-2F8A-4A44-BF0B-6669CD9F5819}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/recharge" r:id="rId3" ref="D4" xr:uid="{EC90B76E-9BF9-6847-B8A1-6B3FAAE54834}"/>
+    <hyperlink display="http://127.0.0.1:8888/api/member/withdraw" r:id="rId4" ref="D5" xr:uid="{30A0EBFF-535F-A74A-8C41-2EE6F7465375}"/>
+    <hyperlink r:id="rId5" ref="D6" xr:uid="{E9944DA7-0646-694E-8914-3E6ACC1D7539}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins bottom="1" footer="0.51180555555555596" header="0.51180555555555596" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="77.6640625" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="69.1640625" style="7" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="16.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="47.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="77.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="69.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1">
+    <row customHeight="1" ht="18" r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -790,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -810,10 +815,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -830,13 +835,13 @@
         <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -850,10 +855,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -870,10 +875,10 @@
         <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -887,13 +892,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -901,7 +906,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -910,15 +915,15 @@
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/src/main/resources/cases/cases_v5.xlsx
+++ b/src/main/resources/cases/cases_v5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
